--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/SOUTH_DAKOTA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/SOUTH_DAKOTA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -859,7 +859,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1038,12 +1038,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C49">
@@ -1056,7 +1056,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C50">
@@ -1230,7 +1230,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C63">
@@ -1295,7 +1295,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C68">
@@ -1334,7 +1334,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C71">
@@ -1378,7 +1378,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C74">
@@ -1404,7 +1404,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C76">
@@ -1443,7 +1443,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C79">
@@ -1456,7 +1456,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C80">
@@ -1526,7 +1526,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C85">
@@ -1583,7 +1583,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C89">
@@ -1661,7 +1661,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C95">
@@ -1674,7 +1674,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C96">
@@ -1700,7 +1700,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C98">
@@ -1713,7 +1713,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C99">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C146">
@@ -2455,7 +2455,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C153">
@@ -2507,7 +2507,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C157">
@@ -2520,7 +2520,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C158">
@@ -2735,7 +2735,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C173">
@@ -2870,7 +2870,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C183">
@@ -2917,76 +2917,6 @@
       </c>
       <c r="D186">
         <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/SOUTH_DAKOTA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/SOUTH_DAKOTA_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Metapa</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Teopisca</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Guazapares</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -800,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -813,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Juchitepec</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>León</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1345,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Jaltocán</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Xochiatipan</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1633,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Mezquitic</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Martín De Bolaños</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -1737,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1820,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Arteaga</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Chinicuila</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Churintzio</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1937,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Queréndaro</t>
@@ -1950,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -1963,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1976,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -1989,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -2002,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2033,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -2046,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -2059,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -2103,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -2116,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2178,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>San Jerónimo Sosola</t>
@@ -2191,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -2204,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -2217,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -2230,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Valerio Trujano</t>
@@ -2243,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2274,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Coatzingo</t>
@@ -2287,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -2300,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tlapacoya</t>
@@ -2313,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2326,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2339,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2370,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2383,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2414,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -2427,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2440,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>San Martín Chalchicuautla</t>
@@ -2453,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -2466,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -2479,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -2492,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -2505,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -2518,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2531,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -2544,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2575,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -2588,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -2601,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2632,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2663,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -2676,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2689,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2702,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2733,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2746,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2759,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -2772,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -2785,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -2798,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2811,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2824,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2855,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -2868,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -2881,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2894,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Total</t>
